--- a/ktds-msai-6th-mvp/data/컴플라이언스 9대분야.xlsx
+++ b/ktds-msai-6th-mvp/data/컴플라이언스 9대분야.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ms ai 개발 6차\ktds-msai-6th\ktds-msai-6th-mvp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11B5815-AD7C-411F-9D9C-77B50C9D7CF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BFD0D4-38CE-43EC-90C3-481150C67D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,19 @@
     <sheet name="2022년" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022년'!$A$1:$B$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022년'!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>분야</t>
   </si>
   <si>
     <t>1. 부패방지</t>
-  </si>
-  <si>
-    <t>부패방지 분야</t>
   </si>
   <si>
     <t>법령상 허용된 경우가 아닌 한 공직자 등(배우자, 공무수행사인 포함)에게 직무와 관련하여 금품 등을 제공하거나 제공의 약속 또는 의사표시를 하지 않는다.</t>
@@ -64,9 +61,6 @@
     <t>2. 공정거래</t>
   </si>
   <si>
-    <t>공정거래 분야</t>
-  </si>
-  <si>
     <t>정당한 이유 없이 특정사업자(거래상대방)에 대하여 거래의 개시를 거절하거나 계속적인 거래관계에 있는 특정사업자(거래상대방)에 대하여 거래를 중단하거나 거래하는 상품 또는 용역의 수량이나 내용을 현저하게 제한하지 않는다.</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>3. 하도급</t>
-  </si>
-  <si>
-    <t>하도급 분야</t>
   </si>
   <si>
     <t>중소기업*에게 위탁업무 시작 전 대금 지급 시기 등 법정기재사항을 기재한 서면(계약서 등)을 발급하여야 하고, 거래종료일로부터 3년간 서면을 보존하여야 한다.
@@ -134,9 +125,6 @@
   </si>
   <si>
     <t>4. 정보보호</t>
-  </si>
-  <si>
-    <t>정보보호 분야</t>
   </si>
   <si>
     <t>법령상 허용하는 경우가 아닌 한 업무용 PC 내 모든 개인정보(주민등록번호, 전화번호, 계좌/카드번호 등)는 삭제한다.</t>
@@ -173,9 +161,6 @@
     <t>5. 계약</t>
   </si>
   <si>
-    <t>계약 분야</t>
-  </si>
-  <si>
     <t>(정보통신공사) 도급 또는 하도급 받은 공사는 하도급 또는 재하도급을 하고자 할 경우 발주자로부터 사전 승낙을 받아야 한다.</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
   </si>
   <si>
     <t>6. 인사</t>
-  </si>
-  <si>
-    <t>인사 분야</t>
   </si>
   <si>
     <t xml:space="preserve">도급계약에 따른 업무의 '완성(결과)'이 아닌 과정에 개입하는 행위(수급사 직원에 대한 지휘·명령, 인력운영에 관여) 및 수급사 직원과 동일 공간에서의 혼재근무, 현장대리인 미선임 등 위장도급(불법파견)이 될 수 있는 행위를 하지 않는다. </t>
@@ -216,9 +198,6 @@
     <t>7. 산업안전보건</t>
   </si>
   <si>
-    <t>산업안전보건 분야</t>
-  </si>
-  <si>
     <t>정기적으로 산업안전보건 관련 위험성평가를 실시하고 시행자료를 관리한다.</t>
   </si>
   <si>
@@ -242,20 +221,6 @@
     <t>8. 회계·세무</t>
   </si>
   <si>
-    <r>
-      <t>회계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·세무 분야</t>
-    </r>
-  </si>
-  <si>
     <t>일반 및 사업경비 등 각종 경비와 관련한 결의는 첨부된 증빙서류와 일치되도록 하여 전표작성 가이드(한 줄 명기 금지 및 적요작성예시 등)를 참조하여 적요를 기재하여야 하고, 지출위임전결기준에 맞게 결재가 되어야 한다. 
 ※ 지출 위임전결기준 예시: 일반/사업경비 전결기준 건 3억 원 이상 ‘부서장(본부장 이상)’, 건 3억원 미만 ‘담당’, 건 100만 원 미만 ‘팀장(현업부장)’, 건 50만 원 미만 팀장(현업팀장). 단, 부장/팀장/팀원 명의 법인카드 지출결의 1회 사용액 30만원 초과시 ‘담당’ 승인 必 등</t>
   </si>
@@ -279,9 +244,6 @@
   </si>
   <si>
     <t>9. 이용자 보호</t>
-  </si>
-  <si>
-    <t>이용자 보호 분야</t>
   </si>
   <si>
     <t>이용자의 가입의사 또는 추가 이용의사를 확인하지 않고 이용계약을 체결하는 행위를 하지 않는다.
@@ -1658,7 +1620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1694,37 +1656,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1746,29 +1684,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,14 +1923,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E36" sqref="E36"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2017,503 +1943,548 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5" t="s">
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
       <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4" t="s">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="B48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="B49" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B50" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B52" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+    <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
+      <c r="B55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="3" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
+      <c r="A58" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="3" t="s">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="62" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="B62" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
       <c r="B63" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="4" t="s">
+      <c r="A64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="4" t="s">
+    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="9">
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A43:A49"/>
-  </mergeCells>
+  <autoFilter ref="A1:B65" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>

--- a/ktds-msai-6th-mvp/data/컴플라이언스 9대분야.xlsx
+++ b/ktds-msai-6th-mvp/data/컴플라이언스 9대분야.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ms ai 개발 6차\ktds-msai-6th\ktds-msai-6th-mvp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BFD0D4-38CE-43EC-90C3-481150C67D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95132569-6B70-48DE-8110-8CCFBD8E50FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022년" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="2022년" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022년'!$A$1:$B$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2022년'!$A$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>분야</t>
   </si>
@@ -1523,12 +1524,137 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>점검항목/내용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 법령상 허용된 경우가 아닌 한 공직자 등(공무수행사인 포함)에게 직접 또는 제3자를 통한 부정청탁을 하지 않는다.
+※ 공직자 등: 공무원, 공직유관단체 및 공공기관의 장과 임직원, 각급학교의 장과 교직원 및 학교법인의 임직원, 언론사(잡지 및 기타 간행물 발행자 포함)의 대표자와 그 임직원
+※ 공무수행사인: 각종 법령에 따라 설치된 위원회(학교위원회, 시청자위원회 등)의 공직자 등이 아닌 위원, 법령에 따라 권한을 위임·위탁 받은 법인·단체·개인 등
+2) 법령상 허용된 경우가 아닌 한 공직자 등(배우자, 공무수행사인 포함)에게 직무와 관련하여 금품 등을 제공하거나 제공의 약속 또는 의사표시를 하지 않는다.
+3) 사업의 획득/유지를 목적으로 부정한 의도를 가지고, 국내/해외 공무원 등에게 금전, 채용, 여행 등 가치 있는 모든 것을 직/간접적으로 제공/제안/약속/승인하는 행위를 하지 않는다. 특히, 에이전트/하도급사 등 제3자를 통한 뇌물 제공 행위가 발생하지 않도록 주의한다.
+4) 비용집행은 실제에 부합하게 장부에 기재 및 회계처리를 하고, 이와 관련된 증빙자료는 정확하게 보관/관리한다. 특히, 뇌물제공 등 부패행위를 은폐하기 위해 고의적으로 회계처리를 누락하거나 허위기재 하지 않는다.
+5) 임직원 채용, 승진, 전보 등과 관련하여 부정한 청탁을 하거나 받지 않으며, 공개경쟁 절차를 통하지 않는 채용시에는 '공직자 연관성 검토 및 심의' 프로세스를 준수한다.
+6) 임직원 채용, 승진, 전보 등과 관련하여 부정한 청탁을 하거나 받지 않으며, 공개경쟁 절차를 통하지 않는 채용시에는 '공직자 연관성 검토 및 심의' 프로세스를 준수한다.
+7) 국내외 공무원, 공공기관/공직유관단체의 임직원, 국제기구 임직원, 정치후보자 등으로부터 직간접적으로 청탁/권유/요청 받은 기부/협찬/협회비 등(구체적인 컴플라이언스 사전심의 대상은 컴플라이언스 사전심의 체크리스트* 참조)은 반드시 컴플라이언스 사전심의를 거쳐야 하며, 사전심의에서 승인을 받은 경우에만 후속 프로세스**를 진행한다.
+*컴플라이언스 플랫폼&gt;사전심의&gt;기부/협찬/협회비 사전심의 참조
+**기금출연심의위원회 운영안, 경영임원회의 내 위원회 운영지침 참조
+8) 협력사 등과 계약을 체결하고자 하는 계약요청부서는 부패방지법 위반 리스크 예방을 위한 위험평가표 양식에 따라 제3자 위험 평가를 하고, 평가 결과 중위험 이상일 경우에는 내/외부 실사질의서 작성 후 위험요인이 있을 경우 지정된 준법실사 전문부서에  VDC-B(입찰)/계약요청일 기준 10일 전까지 준법실사를 의뢰해야 한다. 
+*협력사 등: 수주사업 협력사, 하도급사, 컨소시엄사, 사업중개/Agent, 재화/용역 공급사 등
+9) 경영권인수/소수지분투자/펀드출자 시 FCPA 등 부패방지 실사 절차를 준수한다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 정당한 이유 없이 특정사업자(거래상대방)에 대하여 거래의 개시를 거절하거나 계속적인 거래관계에 있는 특정사업자(거래상대방)에 대하여 거래를 중단하거나 거래하는 상품 또는 용역의 수량이나 내용을 현저하게 제한하지 않는다.
+2) 회사의 거래상의 지위를 부당하게 이용하여 거래상대방에게 상품/용역의 구입을 강제하거나, 경제상이익의 제공을 강요하거나, 거래상대방에게 거래조건을 불이익 하게 설정 또는 변경하지 않는다. 
+3) 부당하게 그룹사 또는 다른 회사에 대하여 가지급금∙대여금∙인력∙부동산∙유가증권∙상품∙용역∙무체재산권 등을 제공하거나 상당히 유리한 조건으로 거래하지 않으며, 타사업자와 직접 상품/용역을 거래하면 상당히 유리함에도 부당하게 그룹사나 다른 회사를 거래단계에 추가 또는 거쳐서 거래하거나 그 그룹사나 다른 회사에 거래상 역할에 비하여 과도한 대가를 지급하는 행위를 하지 않는다.
+4) 다른 사업자와 합의(묵시적 합의 등 형식불문, 정보교환행위 합의추정)를 통해 부당하게 공동으로 가격의 인상/인하율을 결정하거나 거래조건/방법을 제한/결정하거나 일정수준으로 가격을 유지하는 행위, 입찰에 참여하면서 낙찰예정자/가격/비율 등을 사전에 결정하는 행위 등 담합을 하지 않는다.
+5) 판매부진 단말, 재고품, 견본품, 비품, 판촉물 등을 대리점에게 구입(주문)하도록 강요하거나 주문할 수 밖에 없는 상황을 조성하여 구입을 강제하지 않는다.
+6) 대리점에 판매목표를 부여하고 미달했다는 이유로, 대리점 계약을 중도에 해지하거나 상품 또는 용역의 공급을 중단하거나 대리점에 지급하여야 하는 금액의 전부 또는 일부를 지급하지 않거나 상품 또는 용역의 공급을 현저히 축소하거나 지연하여서는 안 된다.
+7) 판매장려금 지급기준, 판매수수료 등 당사자 간에 사전에 합의한 거래조건을 합리적 이유 없이 대리점에 일방적으로 불리하게 변경하는 등 부당한 불이익 제공행위를 하지 않는다.
+8) 합리적인 이유 없이 대리점에 거래처 현황, 매출 내역 등 영업상 비밀에 해당하는 정보를 제공하도록 요구하지 않는다.
+9) 광고/홍보/판촉물을 제작 시, 거짓되고 과장된 광고를 하지 않으며, 경쟁사업자의 상품 또는 사업자를 비방하거나 부당하게 비교하는 광고를 하지 않으며, 중요사항에 대해서 누락, 은폐(지나치게 작은 글씨로 표기 등), 축소(지나치게 생략된 설명 제공 등)하지 않는다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 이용자의 가입의사 또는 추가 이용의사를 확인하지 않고 이용계약을 체결하는 행위를 하지 않는다.
+※ 대리점 등 당사의 업무를 대리하는 자에 대해서도 그러한 행위를 하지 않도록 상당한 주의/감독 필요
+※ 준수사항 예시
+- 가입시 고객의 의사가 반영된 자필 서명, 구비서류 첨부 확인
+- 사회적 약자 등 취약계층에게 비자발적 서비스 가입을 강요하지 않도록 관리, 감독
+2) 이용자를 모집하거나 이용계약을 체결할 때 약정 조건 및 서비스 내용 등에 관한 중요한 사항을 고지하고, 거짓이나 과장을 하지 않는다.
+*중요한 사항: 사업자명, 이용요금, 지원금, 요금할인, 경품, 할부수수료, 보험료, 약정기간, 위약금, 손해배상, 결합판매 구성상품의 전체ㆍ개별 할인율 등의 약정 조건, 서비스 개시 전의 신청 철회권 행사방법 등
+※ 대리점 등 당사의 업무를 대리하는 자에 대해서도 그러한 행위를 하지 않도록 상당한 주의/감독 필요
+※ 준수사항 예시
+- 유/무선 등 신청서를 제공하고, 신청 내역을 고객이 확인할 수 있도록 통지
+3) 정당한 사유 없이 이용계약의 해지를 거부ㆍ지연하거나 제한하는 행위를 하지 않는다.
+※ 대리점 등 당사의 업무를 대리하는 자에 대해서도 그러한 행위를 하지 않도록 상당한 주의/감독 필요
+4) (유선)부당한 이용자 차별이 되지 않도록 초고속인터넷서비스 및 관련 결합 상품 판매시 경제적 이익 등 제공 관련 법령 등 기준을 준수한다.
+※ 대리점 등 당사의 업무를 대리하는 자에 대해서도 상당한 주의/감독 필요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 일반 및 사업경비 등 각종 경비와 관련한 결의는 첨부된 증빙서류와 일치되도록 하여 전표작성 가이드(한 줄 명기 금지 및 적요작성예시 등)를 참조하여 적요를 기재하여야 하고, 지출위임전결기준에 맞게 결재가 되어야 한다. 
+※ 지출 위임전결기준 예시: 일반/사업경비 전결기준 건 3억 원 이상 ‘부서장(본부장 이상)’, 건 3억원 미만 ‘담당’, 건 100만 원 미만 ‘팀장(현업부장)’, 건 50만 원 미만 팀장(현업팀장). 단, 부장/팀장/팀원 명의 법인카드 지출결의 1회 사용액 30만원 초과시 ‘담당’ 승인 必 등
+2) 접대성비용은 업무추진비로 집행하고, 업무추진비는 재원운영기준에 따라 FCPA 적용대상자는 직책명(또는 성명)을 모두 기재하는 등 적요를 상세히 기재한다.
+3) 물품구매는 계약(3단가,총액) 외에는 IP(전자조달)구매를 원칙으로 하며, 물품구매 운영기준 및 물품구매 내부통제 가이드라인을 준수한다. 특히, 개당 구매단가가 5만원을 초과하거나 1회 총 구매금액이 100만원 이상인 선장품의 경우 선장품 수불부를 작성하여 첨부하여야 하며, IP예외구매(법인카드/AP물품구매) 시에는 예외사유 기재 및 거래명세서를 반드시 첨부하여야 한다.
+4) 유가증권(상품권)은 현금화 하지 않으며, 예산계정통제, 구매유형별 사용원칙 등 재원운영기준에 따라 사용한다. 특히, 선구매, 대리수령을 금지하며, 외부직원(그룹사,대리점 등)에 대한 5만원 초과 유가증권 지급시에는 원천징수 하여야 한다
+5) 담당자는 실제 재화나 용역의 공급없이 세금계산서(가공세금계산서)를 발급/수취하거나 실제 공급한 사업자와 세금계산서상의 사업자가 다르게 세금계산서를(위장세금계산서) 발급/수취 하지 않는다.
+6) 부가가치세법상 과세거래에 해당하는 재화/용역을 공급하거나 공급받는 경우 법령상 허용되는 경우가 아닌 한 원칙적으로 공급시기에 맞춰 세금계산서를 발급/수취하여야 한다.
+7) 사전 세무 검토대상은 반드시 세무검토 절차를 준수한다.(ex. 자본거래, 투자액10억원, 매출액 50억원 이상, 그룹사와의 모든 용역/공사 수의계약 등)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 정기적으로 산업안전보건 관련 위험성평가를 실시하고 시행자료를 관리한다.
+2) (현업부서 등 대상부서 限)임직원은 산업안전보건법령상 정해진 교육을 이수한다.
+3) (현업부서 등 대상부서 限)현장 작업자는 작업 전에 주변 위험요소 확인, 안전보호구 착용/점검 등 일상 안전점검을 실시하고, 작업유형별 안전관리절차를 준수한다.
+4) (현업부서 등 대상부서 限)현장작업 중에 위험이 판단되면 작업을 즉시 중단하고 안전조치를 취한다.
+5) 산업재해 발생 최초 목격자나 발견자는 보고체계에 따라 즉각 보고하고, 현장은 재해조사가 마무리 될 때까지 보존되도록 한다.
+※ 보고체계: 재해발생 최초 목격자나 최초 발견자는 해당 관리감독자(소관부서의 장)에게 보고하고, 관리감독자는 관리책임자(사업부서/지원부서: 직제규정 분장업무에서 정하는 부서장, 지역본부: 광역본부장, 현업기관: 기관장)에게 보고
+6) (도급인 지위 限)관계수급인 근로자가 회사의 사업장 등에서 작업시 회사의 작업장 순회점검 및 회사, 회사 근로자, 관계수급인 근로자와 함께 합동안전보건점검을 실시하는 등 관련 법령에 따른 도급인의 안전보건활동을 이행한다.
+※ 관계수급인: 도급이 여러 단계에 걸쳐 체결된 경우에 각 단계별로 도급받은 사업주 전부를 말함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 도급계약에 따른 업무의 '완성(결과)'이 아닌 과정에 개입하는 행위(수급사 직원에 대한 지휘·명령, 인력운영에 관여) 및 수급사 직원과 동일 공간에서의 혼재근무, 현장대리인 미선임 등 위장도급(불법파견)이 될 수 있는 행위를 하지 않는다. 
+2) 직원의 근로시간은 휴게시간을 제외한 주 5일 40시간, 1일 8시간으로 하고, 연장 근로는 1주 최대 12시간까지 근로할 수 있다. 단, 유연근로의 경우 개별 기준에 따른다.
+3) 임직원은 관련 법규에서 금지한 성희롱에 해당하는 행위를 하지 않는다.
+※ 금지하는 행위: 남녀고용평등법 시행규칙 제2조 '성희롱 판단기준'에 따른, 육체적/언어적/시각적 행위 및 성적언동, 사회통념상 성적 굴욕감 또는 혐오감을 유발하는 언어/행동 
+4) 4) 임직원은 직장에서의 지위 또는 관계 등의 우위를 이용하여 업무상 적정 범위를 넘어 다른 임직원에게 신체적ㆍ정신적 고통을 주거나 근무 환경을 악화시키는 행위(직장 내 괴롭힘)를 하지 않는다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) (정보통신공사) 도급 또는 하도급 받은 공사는 하도급 또는 재하도급을 하고자 할 경우 발주자로부터 사전 승낙을 받아야 한다.
+2) (전기공사) 도급받은 공사를 하도급 주려면 미리 발주자에게 이를 서면으로 알려야 하며, 하도급받은 공사를 재하도급 하고자 할 경우 전기공사의 발주자 및 수급인에게 이를 서면으로 통지하여야 한다.
+3) 제안서(이행 가능한 제안서 작성 중요), 계약서 등을 포함한 계약조건(하도급관리계획, 외주근로자 근로조건 이행계획, 공동계약에 관한 사항 등 포함)에 따라 계약을 이행한다.
+4) 입찰 또는 수주계약에 관한 서류를 위조∙변조하여 제출하거나 허위 서류를 제출하지 않는다.
+5) 사용인감 날인/반출 프로세스, 법인인감 날인/증명서 발급 프로세스, 인장날인 완료 계약서 시스템 등재 등 인장관리지침 및 매뉴얼을 준수한다.
+6) (정보통신공사, 전기공사)법령상 예외적인 경우가 아닌 한 관련 공사업법에서 요구하는 공사업자 자격(등록증, 등록수첩)이 없는 자에게 해당 공사를 도급(또는 하도급)하지 않는다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 법령상 허용하는 경우가 아닌 한 업무용 PC 내 모든 개인정보(주민등록번호, 전화번호, 계좌/카드번호 등)는 삭제한다.
+2) 고객으로부터 동의 받은 목적 외에 개인정보를 오/남용하지 않는다.(ex, 업무 목적 외 고객 개인정보 조회, 마케팅 활용 미동의 고객 TM, 영업을 위한 고객 리스트 추출 등)
+3) 고객 동의 없이 고객의 개인정보를 제3자에게 제공하지 않는다. (단, 법령상 허용된 경우에는 가능)
+4) 개인정보의 처리 업무를 위탁하는 경우, 수탁자(대리점, IT시스템 운영 협력사 등)가 개인정보를 안전하게 처리하는지 정기적으로 관리/감독 및 교육을 시행한다.
+ex) 위탁 업무 수행 목적 외 개인정보 처리 금지, 개인정보 불법 수집/저장 금지 등 
+5) 불필요한 고객정보처리시스템(KOS, ICIS, BI/DW 등) 접근 권한은 즉시 반납한다.
+6) 회사의 각종 정보시스템의 사용자 계정 및 패스워드(ID/PW)는 타인과 공유하지 않고, 메모장/종이 등에 기록/방치하지 않는다.
+7) 개인정보처리시스템을 관리하는 자는 본인이 관리하는 개인정보처리시스템이 법령 등에서 정한 개인정보의 안전성 확보조치(암호화, 접근통제 등) 기준을 준수하도록 관리하여야 한다.
+8) 사내 생성되는 기업비밀(개인정보 포함)은 사내 기업비밀 관리 기준을 준수한다.
+- 기업비밀은 암호화하고 문서의 사용 목적에 따라 접근 대상 및 유효기간을 지정하여 생성 관리되어야 한다. 
+- 기업비밀을 사내외 비인가자에게 무단으로 제공(열람, 전송, 저장, 출력, 복사, 누설 등) 하는 행위는 금지한다. 
+- 업무 목적 완료된 기업비밀은 복구할 수 없는 상태로 파기 한다. 
+9)임직원 보안수준진단(sldm.kt.com) 기준을 준수한다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 중소기업*에게 위탁업무 시작 전 대금 지급 시기 등 법정기재사항을 기재한 서면(계약서 등)을 발급하여야 하고, 거래종료일로부터 3년간 서면을 보존하여야 한다.
+*중소기업: 하도급법상 '수급사업자' 또는 상생협력법상 '수탁기업'을 의미하며, 각 법령이 적용되는 항목에 맞는 의미가 적용됨. 이하 동일
+2) 중소기업 및 중견기업(연간매출액 3천억원 이하)에 대한 하도급대금은 목적물 수령일(인수일, 용역수행 종료일 등)로부터 60일 이내 (계약서상 지급일이 60일 보다 더 빠른 경우 계약서상 지급일)에 지급하여야 한다.
+3) 발주자로부터 선급금을 받을 경우, 받은 내용∙비율에 따라 15일 이내 관련 중소기업에게 선급금을 지급하여야 하고, 발주자로부터 준공금, 기성금을 받을 경우, 15일 이내 관련 중소기업 및 중견기업(연간매출액 3천억원 이하)에게 해당 업무에 상당하는 준공금, 기성금을 지급하여야 한다.
+4) 목적물 수령일로부터 10일 이내 검사결과를 중소기업에게 서면 통지하여야 한다.
+5) 과업지시서 등 부속서류를 포함한 모든 계약문서에 중소기업의 이익을 부당하게 침해, 제한하는 계약조건(부당한 특약)을 설정하지 않는다. 
+6) 정당한 사유(위탁 목적을 달성하기 위해 중소기업의 기술자료가 절차적/기술적으로 불가피하게 필요한 경우)로 기술자료를 요구하여야 하며, 기술자료 요구를 하는 경우에는 Techcare 시스템을 통해 기술자료요구서 발급 및 비밀유지계약을 체결하고, 기술자료/아이디어는 TechCare를 통해 수령하며, 제공받은 기술자료/아이디어는 목적 범위 내 사전에 협의된 사용자, 열람기간에 한하여 사용하여야 하며, 제3자 제공 또는 유용(목적 범위 외 사용)을 하여서는 안 된다.
+7) 중소기업에게 일률적 단가 인하, 일방적으로 낮은 단가 결정 등 부당한 하도급대금결정을 하지 않으며, 정당한 사유가 없는 한 하도급 대금을 감액하지 않는다.
+8) 중소기업의 책임으로 돌릴 사유가 없는 경우에는 계약을 임의로 취소하거나 변경하는 행위, 납품수령을 거부하거나 지연하는 행위를 하지 않으며, 부당반품을 하지 않는다.
+9) 중소기업에게 정당한 사유 없이 중소기업의 경영정보를 요구하지 않는다. 
+※ 경영정보: 납품을 위해 투입한 재료비, 노무비 등 원가에 관한 정보, 다른 사업자에게 납품하는 매출 관련 정보, 경영전략 관련 정보, 영업 관련 정보 등
+10) 법령상 예외적인 경우가 아닌 한 중소기업과 계약하는 경우 ‘계약금액 중 주요 원자재*의 가격이 해당 중소기업과 협의하여 정한 비율 이상으로 변동하는 경우 그 변동분에 연동하여 계약금액을 조정한다’는 내용을 포함한 계약을 체결하여야 하고, 거래상 지위를 남용하거나 거짓 또는 그 밖의 부정한 방법으로 이를 회피하려는 행위를 해서는 안 된다.
+* 납품에 사용되는 원재료로서 그 비용이 계약금액의 100분의 10이상인 원자재</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 산업안전보건</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1731,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1662,7 +1817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1694,6 +1849,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1922,24 +2098,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0024D6D9-126B-48DA-A489-208B5073EAA6}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.5" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="310.5">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="229.5">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="283.5">
+      <c r="A4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="202.5">
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="121.5">
+      <c r="A6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="121.5">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="148.5">
+      <c r="A8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="202.5">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="202.5">
+      <c r="A10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E36" sqref="E36"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +2249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="82.5">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +2257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="28.5">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.5">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="28.5">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="28.5">
       <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1995,7 +2297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="71.25">
       <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="57">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="28.5">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2027,7 +2329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.5">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="42.75">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="42.75">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="28.5">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="28.5">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="28.5">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="28.5">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
@@ -2091,7 +2393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="42.75">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="28.5">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -2107,7 +2409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="28.5">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -2115,7 +2417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -2123,7 +2425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="57">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="28.5">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="28.5">
       <c r="A27" s="10" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="42.75">
       <c r="A28" s="10" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="57">
       <c r="A29" s="10" t="s">
         <v>20</v>
       </c>
@@ -2171,7 +2473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -2179,7 +2481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="28.5">
       <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
@@ -2187,7 +2489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="42.75">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
@@ -2203,7 +2505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>31</v>
       </c>
@@ -2219,7 +2521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="28.5">
       <c r="A36" s="9" t="s">
         <v>31</v>
       </c>
@@ -2227,7 +2529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="57">
       <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +2537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>31</v>
       </c>
@@ -2243,7 +2545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="28.5">
       <c r="A40" s="10" t="s">
         <v>41</v>
       </c>
@@ -2259,7 +2561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="28.5">
       <c r="A41" s="10" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="10" t="s">
         <v>41</v>
       </c>
@@ -2275,7 +2577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
@@ -2283,7 +2585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="28.5">
       <c r="A44" s="10" t="s">
         <v>41</v>
       </c>
@@ -2291,7 +2593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="28.5">
       <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
@@ -2299,7 +2601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="28.5">
       <c r="A46" s="10" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="42.75">
       <c r="A47" s="10" t="s">
         <v>48</v>
       </c>
@@ -2315,7 +2617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="28.5">
       <c r="A48" s="10" t="s">
         <v>48</v>
       </c>
@@ -2323,7 +2625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>53</v>
       </c>
@@ -2331,7 +2633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
@@ -2339,7 +2641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="28.5">
       <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
@@ -2347,7 +2649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
@@ -2355,7 +2657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="42.75">
       <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
@@ -2363,7 +2665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="42.75">
       <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
@@ -2371,7 +2673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="57">
       <c r="A55" s="9" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="28.5">
       <c r="A56" s="9" t="s">
         <v>60</v>
       </c>
@@ -2387,7 +2689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="42.75">
       <c r="A57" s="9" t="s">
         <v>60</v>
       </c>
@@ -2395,7 +2697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="28.5">
       <c r="A58" s="9" t="s">
         <v>60</v>
       </c>
@@ -2403,7 +2705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="28.5">
       <c r="A59" s="9" t="s">
         <v>60</v>
       </c>
@@ -2411,7 +2713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="28.5">
       <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
@@ -2419,7 +2721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="28.5">
       <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
@@ -2427,7 +2729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="71.25">
       <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +2737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="85.5">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -2443,7 +2745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="28.5">
       <c r="A64" s="9" t="s">
         <v>68</v>
       </c>
@@ -2451,7 +2753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="28.5">
       <c r="A65" s="9" t="s">
         <v>68</v>
       </c>
@@ -2459,28 +2761,28 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="6"/>
     </row>
   </sheetData>
